--- a/medicine/Handicap/International_Disability_Alliance/International_Disability_Alliance.xlsx
+++ b/medicine/Handicap/International_Disability_Alliance/International_Disability_Alliance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' International Disability Alliance (IDA) est une association composée des organisations mondiales et régionales de Personnes Handicapées, travers le monde, y compris dans les pays développés et en développement.
 L'International Disability Alliance travaille pour progresser les droits humains des personnes handicapées en utilisant des accords internationaux, d'institutions et de processus, à l'aide de la Convention relative aux droits des personnes handicapées des Nations unies. L'International Disability Alliance travaille en collaboration avec l'organisation des Nations unies.
@@ -512,7 +524,9 @@
           <t>Liste de membres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les membres des organisations suivantes :
 Le Syndrome de Down International (DSI)
@@ -556,7 +570,9 @@
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1999-2000 : Liisa Kauppinen de la Fédération mondiale des sourds
 2010-2011 : Diane Richler
